--- a/biology/Botanique/Thapsia_villosa/Thapsia_villosa.xlsx
+++ b/biology/Botanique/Thapsia_villosa/Thapsia_villosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Thapsie velue - Thapsia villosa - est une espèce de la famille des Apiacées.
 </t>
@@ -511,12 +523,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>C'est une plante vivace herbacée assez robuste de 40 à 100 cm de hauteur.
 Les feuilles de base sont en rosette appliquée sur le sol : elles sont très divisées en lobes assez étroits, vert sombre dessus et cendrées dessous. La plante doit son qualificatif de « velue » (villosa) à ses feuilles basales poilues sur les deux faces. Le reste de la plante est glabre, sans feuilles ni bractées (les feuilles caulinaires sont réduites à une gaine jaunâtre à sommet pointu), à tige finement striée.
 L’ombelle terminale est grande et arrondie et comporte au moins douze rayons (en général de 15 à 25). La fleur est jaune-vif et le fruit ovale à 4 ailes larges et ondulées.
-Le nombre de base de chromosomes est n=11. L'espèce peut être diploïde (2n=22), tétraploïde (4n=44) et hexaploïde (6n=66)[1].
+Le nombre de base de chromosomes est n=11. L'espèce peut être diploïde (2n=22), tétraploïde (4n=44) et hexaploïde (6n=66).
 Trois sous-espèces et variétés sont connues :
 Thapsia villosa var. laciniata (Rouy) O.Bolòs &amp; Vigo (1974) (synonyme : Thapsia laciniata Rouy)
 Thapsia villosa subsp. maxima (Mill.) O.Bolòs &amp; Vigo (1974) (synonyme : Thapsia maxima Mill.)
@@ -548,9 +562,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'une espèce méditerranéenne, présente dans le sud de la France, en Espagne et au Portugal[2][1]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'une espèce méditerranéenne, présente dans le sud de la France, en Espagne et au Portugal
 Elle croît dans les coteaux arides et ensoleillés.
 			Début de floraison
 			Fleurs
